--- a/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_yyyy_total/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_yyyy_total/expected_result.xlsx
@@ -465,7 +465,7 @@
         <v>43465</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>43830</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         <v>44196</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         <v>44561</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>44926</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
